--- a/biology/Botanique/Appendicula/Appendicula.xlsx
+++ b/biology/Botanique/Appendicula/Appendicula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appendicula est un genre de la famille des Orchidaceae, de la sous-famille des Epidendroideae, comptant environ 130 espèces d'orchidées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appendicula est un genre de la famille des Orchidaceae, de la sous-famille des Epidendroideae, comptant environ 130 espèces d'orchidées.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces orchidées sont des plantes herbacées qui peuvent être épiphytes, épilithes ou plus rarement terrestres. Les tiges poussent en touffes érigées ou pendantes. Elles sont minces, souvent aplaties, et sont entourées dans le fourreau basal des nombreuses feuilles. Ces tiges présentent de nombreux nœuds[2].
-L'inflorescence est généralement courte et comprend un nombre variable selon les espèces de très petites fleurs vertes ou blanches[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces orchidées sont des plantes herbacées qui peuvent être épiphytes, épilithes ou plus rarement terrestres. Les tiges poussent en touffes érigées ou pendantes. Elles sont minces, souvent aplaties, et sont entourées dans le fourreau basal des nombreuses feuilles. Ces tiges présentent de nombreux nœuds.
+L'inflorescence est généralement courte et comprend un nombre variable selon les espèces de très petites fleurs vertes ou blanches.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante pousse en climat tropical ou subtropical, en Asie du Sud-Est et en Océanie, depuis l'Inde jusqu'en Nouvelle-Guinée, Australie et îles du Pacifique.
-Les espèces de ce genre sont particulièrement présentes en Indonésie et en Nouvelle-Guinée[2].
+Les espèces de ce genre sont particulièrement présentes en Indonésie et en Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (10 mars 2012)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (10 mars 2012) :
 Appendicula aberrans Schltr., Repert. Spec. Nov. Regni Veg. Beih. 1: 343 (1912).
 Appendicula adnata J.J.Sm., Bull. Dép. Agric. Indes Néerl. 15: 21 (1908).
 Appendicula alatocaulis P.O'Byrne &amp; J.J.Verm., Malayan Orchid Rev. 36: 70 (2002).
